--- a/analyses/BCA_analysis/2017-5-25_Plate_2_BCA_analyses.xlsx
+++ b/analyses/BCA_analysis/2017-5-25_Plate_2_BCA_analyses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -203,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +231,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -814,6 +820,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -862,13 +869,13 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -891,22 +898,22 @@
                   <c:v>1.008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.819333333333333</c:v>
+                  <c:v>0.708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.657</c:v>
+                  <c:v>0.545666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.495333333333333</c:v>
+                  <c:v>0.384</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.308333333333333</c:v>
+                  <c:v>0.197</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.094</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.123333333333333</c:v>
+                  <c:v>0.012</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.0</c:v>
@@ -957,11 +964,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-612495424"/>
-        <c:axId val="-737129904"/>
+        <c:axId val="-1474842944"/>
+        <c:axId val="-1483976544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-612495424"/>
+        <c:axId val="-1474842944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,13 +1009,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-737129904"/>
+        <c:crossAx val="-1483976544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-737129904"/>
+        <c:axId val="-1483976544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -1047,13 +1054,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-612495424"/>
+        <c:crossAx val="-1474842944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1466,10 +1474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1764,8 +1775,8 @@
         <v>0.81933333333333325</v>
       </c>
       <c r="F11" s="3">
-        <f>E11-E31</f>
-        <v>0.81933333333333325</v>
+        <f>E11-E29</f>
+        <v>0.70799999999999996</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -1843,8 +1854,8 @@
         <v>0.65700000000000003</v>
       </c>
       <c r="F14" s="3">
-        <f>E14-E31</f>
-        <v>0.65700000000000003</v>
+        <f>E14-E29</f>
+        <v>0.54566666666666674</v>
       </c>
       <c r="G14" s="3">
         <v>0.75</v>
@@ -1922,8 +1933,8 @@
         <v>0.49533333333333335</v>
       </c>
       <c r="F17" s="3">
-        <f>E17-E31</f>
-        <v>0.49533333333333335</v>
+        <f>E17-E29</f>
+        <v>0.38400000000000001</v>
       </c>
       <c r="G17" s="3">
         <v>0.5</v>
@@ -2001,8 +2012,8 @@
         <v>0.30833333333333335</v>
       </c>
       <c r="F20" s="3">
-        <f>E20-E31</f>
-        <v>0.30833333333333335</v>
+        <f>E20-E29</f>
+        <v>0.19700000000000001</v>
       </c>
       <c r="G20" s="3">
         <v>0.25</v>
@@ -2159,8 +2170,8 @@
         <v>0.12333333333333334</v>
       </c>
       <c r="F26" s="3">
-        <f>E26-E30</f>
-        <v>0.12333333333333334</v>
+        <f>E26-E29</f>
+        <v>1.1999999999999997E-2</v>
       </c>
       <c r="G26" s="3">
         <v>2.5000000000000001E-2</v>
@@ -2317,27 +2328,27 @@
         <v>0.99699999999999989</v>
       </c>
       <c r="F32" s="3">
-        <f>E32-E31</f>
-        <v>0.99699999999999989</v>
+        <f>E32-E29</f>
+        <v>0.8856666666666666</v>
       </c>
       <c r="G32" s="3">
-        <f>0.6633*(F32^2)+1.3975*(F32)+0.0049</f>
-        <v>2.0575336696999997</v>
+        <f>1.465*(F32)+0.0212</f>
+        <v>1.3187016666666667</v>
       </c>
       <c r="H32" s="3">
         <v>3</v>
       </c>
       <c r="I32" s="3">
         <f>G32*3</f>
-        <v>6.1726010090999992</v>
+        <v>3.956105</v>
       </c>
       <c r="J32" s="3">
         <f>100/I32</f>
-        <v>16.20062593590195</v>
+        <v>25.277387733642055</v>
       </c>
       <c r="K32" s="3">
         <f>100-J32</f>
-        <v>83.799374064098046</v>
+        <v>74.722612266357942</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -2400,27 +2411,27 @@
         <v>1.93</v>
       </c>
       <c r="F35" s="3">
-        <f>E35-E31</f>
-        <v>1.93</v>
+        <f>E35-E29</f>
+        <v>1.8186666666666667</v>
       </c>
       <c r="G35" s="3">
-        <f>0.6633*(F35^2)+1.3975*(F35)+0.0049</f>
-        <v>5.1728011699999996</v>
+        <f t="shared" ref="G33:G35" si="0">1.465*(F35)+0.0212</f>
+        <v>2.6855466666666667</v>
       </c>
       <c r="H35" s="3">
         <v>3</v>
       </c>
       <c r="I35" s="3">
         <f>G35*3</f>
-        <v>15.518403509999999</v>
+        <v>8.0566399999999998</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" ref="J35" si="0">100/I35</f>
-        <v>6.4439618376697316</v>
+        <f t="shared" ref="J35" si="1">100/I35</f>
+        <v>12.412122175000993</v>
       </c>
       <c r="K35" s="3">
         <f>100-J35</f>
-        <v>93.556038162330267</v>
+        <v>87.587877824999012</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -2466,8 +2477,9 @@
       <c r="K37" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="36" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2479,7 +2491,7 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
